--- a/data/trans_dic/P19C06-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C06-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P19C06-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C06-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,21%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>0,0; 3,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>1,18; 5,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0,45; 7,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>0,0; 2,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0,38; 3,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,18; 1,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0,23; 2,09</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>1,04; 3,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,44; 3,36</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,65%</t>
         </is>
       </c>
     </row>
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0,51; 3,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0,24; 2,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,47 +879,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>0,0; 1,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,47; 2,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>0,23; 1,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,0; 1,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,33; 1,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,81; 2,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,35; 1,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,0; 0,68</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,28; 1,3</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,32%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>0,0; 2,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,33; 3,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,0; 1,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>0,32; 3,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,0; 2,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>1,48; 5,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,0; 1,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,6; 2,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,19; 1,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>1,15; 4,03</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,0; 1,23</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,7; 2,37</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,55%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,43%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,05%</t>
         </is>
       </c>
     </row>
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0,35; 3,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,62; 3,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,47 +1159,47 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,2; 3,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>0,92; 4,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>1,15; 3,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>0,56; 3,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,36; 3,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,78; 3,11</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>1,08; 2,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,3; 1,78</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,47; 2,34</t>
         </is>
       </c>
     </row>
@@ -1221,57 +1221,57 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>1,84%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,41%</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>0,58; 4,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1304,42 +1304,42 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,15</t>
+          <t>0,0; 3,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>0,0; 3,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>0,56; 4,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,0; 3,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,0; 1,49</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,49; 3,08</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0,31; 2,57</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>0,0; 2,03</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,41%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>0,0; 2,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0,38; 3,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>0,69; 5,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>0,5; 3,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>0,0; 2,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>0,37; 3,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0,0; 2,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,4; 2,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0,0; 1,56</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0,57; 2,69</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>0,41; 2,54</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,73; 2,63</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,6%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,31; 2,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,16; 1,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0,41; 2,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,33; 1,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>1,03; 3,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,7; 3,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,89; 3,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>1,18; 3,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,81; 2,45</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,54; 1,74</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,79; 2,66</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>1,01; 2,31</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,44%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,69; 2,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,16; 1,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,27; 3,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>0,13; 1,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,17; 1,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,16; 1,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,32; 3,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,1; 1,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,56; 1,76</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,32; 1,29</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,5; 3,13</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0,17; 0,87</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,98%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0,73; 1,61</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,66; 1,46</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0,78; 1,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,54; 1,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,79; 1,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,03; 1,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,95; 1,78</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>0,85; 1,47</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>0,86; 1,46</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>0,95; 1,51</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>1,0; 1,63</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>0,77; 1,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C06-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C06-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,37%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,65; 4,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 7,11</t>
+          <t>0,44; 8,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,89; 6,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,51</t>
+          <t>0,17; 1,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,63; 4,79</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,36</t>
+          <t>0,45; 4,48</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,64%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,55</t>
+          <t>0,0; 1,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,72</t>
+          <t>0,34; 1,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,3</t>
+          <t>0,28; 1,31</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,31%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,36</t>
+          <t>0,32; 3,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,58</t>
+          <t>0,58; 2,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,37</t>
+          <t>0,7; 2,4</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>0,87%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,0</t>
+          <t>0,0; 4,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,2; 3,14</t>
+          <t>0,19; 2,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,5</t>
+          <t>0,26; 2,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,09</t>
+          <t>0,24; 2,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 2,71</t>
+          <t>0,31; 2,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,34</t>
+          <t>0,37; 1,91</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,42%</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,67</t>
+          <t>0,0; 3,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,03</t>
+          <t>0,0; 2,11</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,42%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,79</t>
+          <t>0,51; 3,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,61</t>
+          <t>0,41; 2,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,63</t>
+          <t>0,73; 2,66</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,46%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,87</t>
+          <t>0,32; 1,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,25</t>
+          <t>0,85; 3,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,31</t>
+          <t>0,82; 2,14</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,39%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,18</t>
+          <t>0,0; 1,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,19</t>
+          <t>0,1; 1,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,87</t>
+          <t>0,13; 0,81</t>
         </is>
       </c>
     </row>
@@ -1811,14 +1811,14 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>1,11%</t>
         </is>
       </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>1,11%</t>
-        </is>
-      </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
           <t>1,22%</t>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,95%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,24</t>
+          <t>0,5; 1,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,85; 1,47</t>
+          <t>0,78; 1,41</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0,77; 1,25</t>
+          <t>0,73; 1,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C06-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C06-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,56</t>
+          <t>0,0; 3,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,32</t>
+          <t>0,61; 4,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 5,81</t>
+          <t>1,18; 6,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,44; 8,49</t>
+          <t>0,25; 8,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,67</t>
+          <t>0,0; 2,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 6,87</t>
+          <t>1,78; 6,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,47</t>
+          <t>0,38; 3,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,47</t>
+          <t>0,18; 1,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,09</t>
+          <t>0,24; 2,1</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,79</t>
+          <t>1,48; 4,5</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,72</t>
+          <t>0,88; 3,64</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,48</t>
+          <t>0,4; 4,38</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,03</t>
+          <t>0,52; 3,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,54</t>
+          <t>0,24; 2,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,54 +880,54 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,52</t>
+          <t>0,0; 1,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,68</t>
+          <t>0,48; 2,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,84</t>
+          <t>0,22; 2,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,3</t>
+          <t>0,0; 1,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,81</t>
+          <t>0,34; 1,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,39</t>
+          <t>0,82; 2,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,58</t>
+          <t>0,27; 1,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,68</t>
+          <t>0,0; 0,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,31</t>
+          <t>0,3; 1,35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,32 +1005,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,49</t>
+          <t>0,0; 2,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,07</t>
+          <t>0,34; 3,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,86</t>
+          <t>0,0; 1,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,43</t>
+          <t>0,43; 3,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,02</t>
+          <t>0,0; 2,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 5,86</t>
+          <t>1,24; 5,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,27 +1040,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,54</t>
+          <t>0,63; 2,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,84</t>
+          <t>0,18; 1,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,03</t>
+          <t>1,13; 3,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,23</t>
+          <t>0,0; 1,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,4</t>
+          <t>0,7; 2,33</t>
         </is>
       </c>
     </row>
@@ -1144,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,88</t>
+          <t>0,35; 3,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,07</t>
+          <t>0,0; 4,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,47 +1160,47 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,91</t>
+          <t>0,23; 2,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,22</t>
+          <t>0,7; 4,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,23</t>
+          <t>0,26; 2,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,44</t>
+          <t>0,59; 3,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,24</t>
+          <t>0,25; 2,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,11</t>
+          <t>0,92; 3,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,64</t>
+          <t>0,37; 2,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,78</t>
+          <t>0,3; 1,83</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,91</t>
+          <t>0,39; 2,04</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1290,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 4,91</t>
+          <t>0,59; 4,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1304,49 +1305,49 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,58</t>
+          <t>0,0; 2,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,47</t>
+          <t>0,0; 3,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 4,74</t>
+          <t>0,57; 4,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,83</t>
+          <t>0,0; 4,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,49</t>
+          <t>0,0; 1,48</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 3,08</t>
+          <t>0,56; 3,42</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,57</t>
+          <t>0,32; 2,59</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,11</t>
+          <t>0,0; 2,07</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>0,0; 2,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,18</t>
+          <t>0,38; 3,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,69; 5,08</t>
+          <t>0,42; 4,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,82</t>
+          <t>0,54; 4,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,54</t>
+          <t>0,0; 2,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,37</t>
+          <t>0,38; 3,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,12</t>
+          <t>0,0; 2,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,63</t>
+          <t>0,42; 2,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,56</t>
+          <t>0,0; 1,55</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,69</t>
+          <t>0,56; 2,65</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,54</t>
+          <t>0,41; 2,58</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,66</t>
+          <t>0,72; 2,88</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,37</t>
+          <t>0,31; 2,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,45</t>
+          <t>0,16; 1,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,98</t>
+          <t>0,24; 2,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,85</t>
+          <t>0,29; 1,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,5</t>
+          <t>0,84; 3,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,0</t>
+          <t>0,72; 2,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,54</t>
+          <t>0,91; 3,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,02</t>
+          <t>0,86; 3,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,45</t>
+          <t>0,79; 2,36</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,74</t>
+          <t>0,57; 1,76</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,66</t>
+          <t>0,76; 2,6</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,14</t>
+          <t>0,85; 2,19</t>
         </is>
       </c>
     </row>
@@ -1704,27 +1705,27 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,83</t>
+          <t>0,62; 2,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,69</t>
+          <t>0,17; 1,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,99</t>
+          <t>1,18; 3,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,07</t>
+          <t>0,0; 0,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,73</t>
+          <t>0,17; 1,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1734,32 +1735,32 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,51</t>
+          <t>1,27; 3,68</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,17</t>
+          <t>0,16; 1,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,56; 1,76</t>
+          <t>0,55; 1,78</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,29</t>
+          <t>0,31; 1,25</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,13</t>
+          <t>1,48; 3,16</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,81</t>
+          <t>0,14; 0,81</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,61</t>
+          <t>0,74; 1,56</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,46</t>
+          <t>0,69; 1,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,73</t>
+          <t>0,82; 1,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,5; 1,36</t>
+          <t>0,5; 1,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,57</t>
+          <t>0,8; 1,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,92</t>
+          <t>1,06; 1,96</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,95; 1,78</t>
+          <t>0,9; 1,83</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,41</t>
+          <t>0,76; 1,41</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,86; 1,46</t>
+          <t>0,86; 1,45</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0,95; 1,51</t>
+          <t>0,95; 1,52</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,63</t>
+          <t>0,97; 1,59</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,26</t>
+          <t>0,72; 1,27</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por tratamiento de las enfermedades de las encías</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4585</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6960</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6568</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1066</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>9520</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3189</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1579</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2996</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>14105</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>10150</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>8147</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7080</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1521; 10384</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2896; 15033</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>766; 27023</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5421</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4430; 17319</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>942; 9692</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>506; 4320</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>930; 8230</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7400; 22508</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4308; 17898</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2368; 26003</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6170</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3323</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2343</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5951</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2991</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4135</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>12121</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6314</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6477</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2134; 14056</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>987; 9418</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2032</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 8012</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2106; 12680</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>980; 8972</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5561</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1705; 9403</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6945; 20149</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2283; 13707</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4924</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3010; 13598</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3872</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3751</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1888</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9756</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1070</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4583</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>3820</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>13628</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>8334</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6434</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1002; 8939</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4498</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1292; 10090</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6768</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4061; 18335</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5356</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2124; 8521</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>939; 8581</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7054; 24470</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6813</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4436; 14807</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4158</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3491</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2742</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5871</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2828</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5363</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>4096</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>10029</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>6318</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5363</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>6838</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>933; 10643</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 12863</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2011</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>711; 8205</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2104; 12749</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>900; 8171</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2041; 12787</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1194; 11758</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5244; 17961</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2410; 16028</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2037; 12409</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3044; 15994</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3529</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1885</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2545</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1566</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>5414</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2545</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1566</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1899</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1129; 9370</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1921</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1224</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5068</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6333</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>823; 6686</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8286</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5083</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2148; 13212</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>836; 6864</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7680</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>915</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2924</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4263</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1035</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3934</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1035</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2856</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>6858</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>5638</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>7120</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4649</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>952; 8785</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>991; 11332</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1377; 10501</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5789</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1018; 9840</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5141</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1029; 6105</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6115</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>2878; 13654</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1989; 12403</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>3600; 14390</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>4213</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2804</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>5090</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>10174</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>9828</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>9041</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>15806</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>14387</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>12632</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>14041</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>20895</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1437; 10347</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>892; 7769</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1056; 11655</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1738; 11196</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>4539; 18034</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>4506; 18404</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>4443; 17177</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>7122; 25519</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>7888; 23674</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>6848; 21195</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>7108; 24177</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>12126; 31227</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>7620</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>14142</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>3981</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>4425</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>15051</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>3153</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>11601</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>8902</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>29193</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>6222</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>3264; 14353</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1058; 11244</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>7526; 23660</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>0; 8460</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1022; 9868</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1104; 10981</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>8806; 25475</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1093; 7767</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>6128; 19932</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>4142; 16752</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>19750; 42073</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>2229; 13034</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>26937</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>29005</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>31603</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>27826</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>30986</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>45167</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>38279</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>37773</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>57923</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>74172</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>69882</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>65599</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>18164; 38256</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>20054; 43082</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>21809; 46014</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>16831; 44629</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>21919; 43006</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>33303; 61523</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>25919; 52492</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>27131; 50506</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>44581; 75159</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>57445; 91903</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>53556; 87748</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>49680; 87707</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>